--- a/SAP/CRM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CRM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3820012797</v>
+        <v>3820016483</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70007554</t>
+          <t>70003761</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -679,11 +679,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2250</v>
+        <v>8</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3820012797</v>
+        <v>3820016483</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70007555</t>
+          <t>70013789</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -729,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4500</v>
+        <v>62</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3820012797</v>
+        <v>3820016483</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70023316</t>
+          <t>70014232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZRPE</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>300</v>
+        <v>62</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -814,14 +814,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3820012797</v>
+        <v>3820016455</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70007554</t>
+          <t>70024034</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2250</v>
+        <v>125.19</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20210924</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,14 +864,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3820012797</v>
+        <v>3820016455</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70007555</t>
+          <t>70006840</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4500</v>
+        <v>9</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20210924</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +914,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3820012797</v>
+        <v>3820016455</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70023316</t>
+          <t>70006242</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -929,11 +929,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20210924</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,14 +964,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3820012797</v>
+        <v>3820016455</v>
       </c>
       <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70007554</t>
+          <t>70014274</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -979,11 +979,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPE</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2250</v>
+        <v>140</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20211001</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1014,14 +1014,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3820012797</v>
+        <v>3820016491</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70007555</t>
+          <t>70006399</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1029,11 +1029,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4500</v>
+        <v>418</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211001</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1064,14 +1064,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3820012797</v>
+        <v>3820016491</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70023316</t>
+          <t>70003224</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1079,11 +1079,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZRPE</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20211001</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1114,14 +1114,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3820012938</v>
+        <v>3823001113</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70006564</t>
+          <t>70002781</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1164,14 +1164,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3820012938</v>
+        <v>3823001113</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70014633</t>
+          <t>70002489</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1214,14 +1214,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3820012938</v>
+        <v>3823001113</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70001658</t>
+          <t>70002012</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1229,11 +1229,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1264,14 +1264,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3820012944</v>
+        <v>3823001113</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70008311</t>
+          <t>70001476</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3970</v>
+        <v>25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20211001</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1314,22 +1314,26 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3820012944</v>
+        <v>3823001113</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70025348</t>
+          <t>70001433</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>3801</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ZREI</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>397</v>
+        <v>6</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1339,7 +1343,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20211001</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1360,14 +1364,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3820012966</v>
+        <v>3823001113</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70006486</t>
+          <t>70001365</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1375,11 +1379,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1389,7 +1393,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1410,14 +1414,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3820012966</v>
+        <v>3823001113</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70003254</t>
+          <t>70001319</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1425,11 +1429,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1439,7 +1443,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20210730</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1460,14 +1464,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3820013010</v>
+        <v>3823001113</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70006117</t>
+          <t>70001280</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1475,11 +1479,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1489,7 +1493,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1510,14 +1514,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3820013010</v>
+        <v>3823001113</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70001271</t>
+          <t>70001274</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1525,11 +1529,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1539,7 +1543,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1560,14 +1564,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3820013010</v>
+        <v>3823001113</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70006116</t>
+          <t>70001230</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1575,11 +1579,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1589,7 +1593,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1610,14 +1614,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3820013010</v>
+        <v>3823001113</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70002100</t>
+          <t>70001226</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1625,11 +1629,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1639,7 +1643,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1660,14 +1664,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3820013010</v>
+        <v>3823001113</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>70006168</t>
+          <t>70001224</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1675,11 +1679,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1689,7 +1693,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1710,14 +1714,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3820013010</v>
+        <v>3823001113</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>70010027</t>
+          <t>70001173</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1725,11 +1729,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1739,7 +1743,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1760,22 +1764,26 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3820012959</v>
+        <v>3823001113</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>70025342</t>
+          <t>70001172</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>3801</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ZREI</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1785,7 +1793,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20211015</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1806,22 +1814,26 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3820012959</v>
+        <v>3823001113</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70025341</t>
+          <t>70001171</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>3801</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ZREI</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1831,7 +1843,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20211015</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1852,22 +1864,26 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3820012959</v>
+        <v>3823001113</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>70025340</t>
+          <t>70001169</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>3801</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ZREI</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1877,7 +1893,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20211015</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1898,14 +1914,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3820012981</v>
+        <v>3823001113</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>70006541</t>
+          <t>70001168</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1913,11 +1929,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1927,7 +1943,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1948,14 +1964,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3820012981</v>
+        <v>3823001113</v>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70001369</t>
+          <t>70001166</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1963,11 +1979,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1977,7 +1993,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1998,14 +2014,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3820012981</v>
+        <v>3823001113</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>70006538</t>
+          <t>70001125</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2013,11 +2029,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2027,7 +2043,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2048,14 +2064,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3820012981</v>
+        <v>3823001113</v>
       </c>
       <c r="C31" t="n">
         <v>40</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>70001371</t>
+          <t>70001052</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2063,11 +2079,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2077,7 +2093,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2098,14 +2114,14 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3820012981</v>
+        <v>3823001113</v>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70006140</t>
+          <t>70001050</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2113,11 +2129,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2127,7 +2143,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2148,14 +2164,14 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3820012981</v>
+        <v>3823001113</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>70001374</t>
+          <t>70001049</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2163,11 +2179,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZREI</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2177,7 +2193,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2198,14 +2214,14 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3820012981</v>
+        <v>3823001114</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>70009727</t>
+          <t>70008343</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2213,11 +2229,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>441.6</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2227,7 +2243,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2248,14 +2264,14 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3820012981</v>
+        <v>3823001114</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70001375</t>
+          <t>70004184</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2263,11 +2279,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2277,7 +2293,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2298,14 +2314,14 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3820012981</v>
+        <v>3823001114</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>70006138</t>
+          <t>70000984</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2313,11 +2329,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>225</v>
+        <v>552</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2327,7 +2343,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2348,14 +2364,14 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3820012981</v>
+        <v>3823001114</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>70001376</t>
+          <t>70001231</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2363,11 +2379,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2377,7 +2393,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2398,26 +2414,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3820013000</v>
+        <v>3820016489</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>70006273</t>
+          <t>70025280</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>3801</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>9.334</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2427,7 +2439,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2448,26 +2460,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3820013034</v>
+        <v>3820016489</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>70007718</t>
+          <t>70025238</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>3801</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2477,7 +2485,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2498,26 +2506,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3820013034</v>
+        <v>3820016489</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>70002332</t>
+          <t>70025237</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>3801</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2527,7 +2531,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2548,14 +2552,14 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3820012939</v>
+        <v>3820016489</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>70007313</t>
+          <t>70002136</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2563,11 +2567,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRPE</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2577,7 +2581,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2598,14 +2602,14 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3820012939</v>
+        <v>3820016489</v>
       </c>
       <c r="C42" t="n">
         <v>10</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>70007314</t>
+          <t>70024059</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2613,11 +2617,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>32</v>
+        <v>6.667</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2627,7 +2631,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2648,14 +2652,14 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3820012939</v>
+        <v>3820016489</v>
       </c>
       <c r="C43" t="n">
         <v>10</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>71000391</t>
+          <t>70006491</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2663,11 +2667,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2677,7 +2681,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2698,14 +2702,14 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3820012973</v>
+        <v>3820016489</v>
       </c>
       <c r="C44" t="n">
         <v>10</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>70006441</t>
+          <t>70014632</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2717,7 +2721,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2727,7 +2731,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2748,14 +2752,14 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3820012973</v>
+        <v>3820016489</v>
       </c>
       <c r="C45" t="n">
         <v>10</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>70001923</t>
+          <t>70002813</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2767,7 +2771,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2777,7 +2781,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20220422</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2798,14 +2802,14 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3820013032</v>
+        <v>3820016509</v>
       </c>
       <c r="C46" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>70006988</t>
+          <t>70007553</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2817,7 +2821,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2827,7 +2831,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2848,14 +2852,14 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3820013032</v>
+        <v>3820016509</v>
       </c>
       <c r="C47" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>70024620</t>
+          <t>70014285</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2867,7 +2871,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2877,7 +2881,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2898,14 +2902,14 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3820013032</v>
+        <v>3823001115</v>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>70006853</t>
+          <t>70021800</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2917,7 +2921,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>200</v>
+        <v>220.8</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2927,7 +2931,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220225</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2948,14 +2952,14 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3820013032</v>
+        <v>3823001115</v>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>70006343</t>
+          <t>70004185</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2967,7 +2971,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2977,7 +2981,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220225</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2998,14 +3002,14 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3820013032</v>
+        <v>3823001115</v>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>70006287</t>
+          <t>70007973</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -3013,11 +3017,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>496</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3027,7 +3031,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220225</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3048,14 +3052,14 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3820013032</v>
+        <v>3823001115</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>70001583</t>
+          <t>70002989</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -3063,11 +3067,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3077,7 +3081,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20220225</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3098,14 +3102,14 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3820013032</v>
+        <v>3820016242</v>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>70006285</t>
+          <t>70009638</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -3117,7 +3121,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3127,7 +3131,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3148,14 +3152,14 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3820013032</v>
+        <v>3820016242</v>
       </c>
       <c r="C53" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>70000968</t>
+          <t>70001044</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -3167,7 +3171,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3177,7 +3181,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3198,14 +3202,14 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3820013032</v>
+        <v>3820016242</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>70006278</t>
+          <t>70004211</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -3217,7 +3221,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3227,7 +3231,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3248,14 +3252,14 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3820013032</v>
+        <v>3820016242</v>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>70000967</t>
+          <t>70001041</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -3267,7 +3271,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3277,7 +3281,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20210903</t>
+          <t>20211231</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3294,554 +3298,59 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>3820013032</v>
-      </c>
-      <c r="C56" t="n">
-        <v>10</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>70006881</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>30</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N56" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3820013032</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>70001100</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>30</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N57" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3820012958</v>
-      </c>
-      <c r="C58" t="n">
-        <v>40</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>70009645</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>70</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N58" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3820012958</v>
-      </c>
-      <c r="C59" t="n">
-        <v>40</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>70003978</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>70</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N59" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3820012965</v>
-      </c>
-      <c r="C60" t="n">
-        <v>30</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>70002180</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>12</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N60" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3820012965</v>
-      </c>
-      <c r="C61" t="n">
-        <v>20</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>70003583</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>24</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N61" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3820012965</v>
-      </c>
-      <c r="C62" t="n">
-        <v>10</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>70001507</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>60</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>20210903</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N62" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3820012940</v>
-      </c>
-      <c r="C63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>70000974</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>660</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>20210917</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N63" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3820012940</v>
-      </c>
-      <c r="C64" t="n">
-        <v>10</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>70002084</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>20</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>20210917</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N64" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3820012940</v>
-      </c>
-      <c r="C65" t="n">
-        <v>20</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>70000974</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>660</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N65" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3820012940</v>
-      </c>
-      <c r="C66" t="n">
-        <v>20</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>70002084</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>20</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>20211029</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N66" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n"/>

--- a/SAP/CRM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CRM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3820016483</v>
+        <v>3820016516</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70003761</t>
+          <t>70006640</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20220422</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3820016483</v>
+        <v>3820016455</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70013789</t>
+          <t>70024034</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -729,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>62</v>
+        <v>125.19</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20220422</t>
+          <t>20220204</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3820016483</v>
+        <v>3820016455</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70014232</t>
+          <t>70006840</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20220422</t>
+          <t>20220204</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70024034</t>
+          <t>70006242</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -829,11 +829,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>125.19</v>
+        <v>140</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20220218</t>
+          <t>20220204</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,14 +864,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3820016455</v>
+        <v>3820016491</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70006840</t>
+          <t>70006399</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -879,11 +879,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20220218</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +914,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3820016455</v>
+        <v>3823001123</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70006242</t>
+          <t>70024059</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>140</v>
+        <v>17.334</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20220218</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,14 +964,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3820016455</v>
+        <v>3823001123</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70014274</t>
+          <t>70006491</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -979,11 +979,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20220218</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1014,14 +1014,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3820016491</v>
+        <v>3823001123</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70006399</t>
+          <t>70014632</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>418</v>
+        <v>52</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1064,14 +1064,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3820016491</v>
+        <v>3823001123</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70003224</t>
+          <t>70007004</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1079,11 +1079,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZRPE</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>418</v>
+        <v>1520</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220204</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1114,14 +1114,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3823001113</v>
+        <v>3823001123</v>
       </c>
       <c r="C12" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70002781</t>
+          <t>70002993</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220204</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1164,26 +1164,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3823001113</v>
+        <v>3823001123</v>
       </c>
       <c r="C13" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70002489</t>
+          <t>70006302</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>3801</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>1160</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1193,7 +1191,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1214,14 +1212,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3823001113</v>
+        <v>3823001123</v>
       </c>
       <c r="C14" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70002012</t>
+          <t>70007445</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1229,11 +1227,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>780</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1243,7 +1241,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1264,14 +1262,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3823001113</v>
+        <v>3823001123</v>
       </c>
       <c r="C15" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70001476</t>
+          <t>70006426</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1279,11 +1277,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>687</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1293,7 +1291,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220211</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1314,14 +1312,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3823001113</v>
+        <v>3823001123</v>
       </c>
       <c r="C16" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70001433</t>
+          <t>70001072</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1329,11 +1327,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1343,7 +1341,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220211</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1364,26 +1362,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3823001113</v>
+        <v>3820016489</v>
       </c>
       <c r="C17" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70001365</t>
+          <t>70025280</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>3801</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>9.334</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1393,7 +1387,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1414,26 +1408,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3823001113</v>
+        <v>3820016489</v>
       </c>
       <c r="C18" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70001319</t>
+          <t>70025238</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>3801</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1443,7 +1433,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1464,26 +1454,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3823001113</v>
+        <v>3820016489</v>
       </c>
       <c r="C19" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70001280</t>
+          <t>70025237</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>3801</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1493,7 +1479,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1514,14 +1500,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3823001113</v>
+        <v>3820016489</v>
       </c>
       <c r="C20" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70001274</t>
+          <t>70024059</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1529,11 +1515,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>6.667</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1543,7 +1529,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1564,14 +1550,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3823001113</v>
+        <v>3820016489</v>
       </c>
       <c r="C21" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70001230</t>
+          <t>70006491</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1579,11 +1565,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRSE</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1593,7 +1579,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1614,14 +1600,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3823001113</v>
+        <v>3820016489</v>
       </c>
       <c r="C22" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70001226</t>
+          <t>70014632</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1629,11 +1615,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1643,7 +1629,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220408</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1664,14 +1650,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3823001113</v>
+        <v>3820016383</v>
       </c>
       <c r="C23" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>70001224</t>
+          <t>70007933</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1679,11 +1665,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1693,7 +1679,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220211</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1714,14 +1700,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3823001113</v>
+        <v>3820016383</v>
       </c>
       <c r="C24" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>70001173</t>
+          <t>70003233</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1729,11 +1715,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1743,7 +1729,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220211</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1764,26 +1750,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3823001113</v>
+        <v>3820016511</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>70001172</t>
+          <t>70026621</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>3801</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>474.45</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1793,7 +1775,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1814,26 +1796,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3823001113</v>
+        <v>3820016511</v>
       </c>
       <c r="C26" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70001171</t>
+          <t>70026622</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>3801</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1843,7 +1821,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220218</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1864,14 +1842,14 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3823001113</v>
+        <v>3820016242</v>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>70001169</t>
+          <t>70009638</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1879,11 +1857,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1893,7 +1871,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1914,14 +1892,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3823001113</v>
+        <v>3820016242</v>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>70001168</t>
+          <t>70004211</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1929,11 +1907,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1943,7 +1921,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220107</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1964,14 +1942,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3823001113</v>
+        <v>3820016426</v>
       </c>
       <c r="C29" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70001166</t>
+          <t>70006538</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1979,11 +1957,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1993,7 +1971,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220128</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2014,14 +1992,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3823001113</v>
+        <v>3820016426</v>
       </c>
       <c r="C30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>70001125</t>
+          <t>70007015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2029,11 +2007,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ZREI</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2043,7 +2021,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220128</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2060,1242 +2038,129 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3823001113</v>
-      </c>
-      <c r="C31" t="n">
-        <v>40</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>70001052</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>20</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>20211203</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N31" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A31" s="4" t="n"/>
+      <c r="M31" s="4" t="n"/>
+      <c r="N31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3823001113</v>
-      </c>
-      <c r="C32" t="n">
-        <v>30</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>70001050</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>20211203</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N32" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
+      <c r="M32" s="4" t="n"/>
+      <c r="N32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3823001113</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>70001049</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>ZREI</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>24</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20211203</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N33" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A33" s="4" t="n"/>
+      <c r="M33" s="4" t="n"/>
+      <c r="N33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3823001114</v>
-      </c>
-      <c r="C34" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>70008343</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>441.6</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20220218</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N34" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A34" s="4" t="n"/>
+      <c r="M34" s="4" t="n"/>
+      <c r="N34" s="4" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3823001114</v>
-      </c>
-      <c r="C35" t="n">
-        <v>100</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>70004184</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>48</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20220218</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N35" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A35" s="4" t="n"/>
+      <c r="M35" s="4" t="n"/>
+      <c r="N35" s="4" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3823001114</v>
-      </c>
-      <c r="C36" t="n">
-        <v>90</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>70000984</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>552</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20220218</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N36" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A36" s="4" t="n"/>
+      <c r="M36" s="4" t="n"/>
+      <c r="N36" s="4" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3823001114</v>
-      </c>
-      <c r="C37" t="n">
-        <v>90</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>70001231</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>24</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>20220218</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N37" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C38" t="n">
-        <v>20</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>70025280</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>9.334</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N38" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C39" t="n">
-        <v>20</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>70025238</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>28</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N39" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C40" t="n">
-        <v>20</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>70025237</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>28</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N40" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C41" t="n">
-        <v>20</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>70002136</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>28</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N41" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>70024059</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N42" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C43" t="n">
-        <v>10</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>70006491</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ZRSE</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>20</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N43" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>70014632</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>20</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N44" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3820016489</v>
-      </c>
-      <c r="C45" t="n">
-        <v>10</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>70002813</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>20</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20220422</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N45" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3820016509</v>
-      </c>
-      <c r="C46" t="n">
-        <v>10</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>70007553</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>66</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>20220218</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N46" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3820016509</v>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>70014285</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>6</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>20220218</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N47" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3823001115</v>
-      </c>
-      <c r="C48" t="n">
-        <v>70</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>70021800</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>20220225</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N48" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3823001115</v>
-      </c>
-      <c r="C49" t="n">
-        <v>70</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>70004185</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>48</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>20220225</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N49" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3823001115</v>
-      </c>
-      <c r="C50" t="n">
-        <v>60</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>70007973</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ZRRL</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>496</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>20220225</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N50" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3823001115</v>
-      </c>
-      <c r="C51" t="n">
-        <v>60</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>70002989</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ZRER</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>16</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>20220225</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N51" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3820016242</v>
-      </c>
-      <c r="C52" t="n">
-        <v>20</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>70009638</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>3</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>20211231</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N52" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3820016242</v>
-      </c>
-      <c r="C53" t="n">
-        <v>20</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>70001044</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>3</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>20211231</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N53" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3820016242</v>
-      </c>
-      <c r="C54" t="n">
-        <v>10</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>70004211</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>5</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>20211231</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N54" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3820016242</v>
-      </c>
-      <c r="C55" t="n">
-        <v>10</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>70001041</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>ZRPE</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>5</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>20211231</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N55" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="n"/>

--- a/SAP/CRM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CRM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3820016516</v>
+        <v>3820017794</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70006640</t>
+          <t>70009643</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220514</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3820016455</v>
+        <v>3820017685</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70024034</t>
+          <t>70006399</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -729,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>125.19</v>
+        <v>418</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20220204</t>
+          <t>20220219</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3820016455</v>
+        <v>3820017673</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70006840</t>
+          <t>70006401</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>1023</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20220204</t>
+          <t>20220129</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -814,14 +814,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3820016455</v>
+        <v>3820017810</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70006242</t>
+          <t>70007719</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -829,11 +829,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20220204</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,14 +864,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3820016491</v>
+        <v>3820017810</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70006399</t>
+          <t>70006908</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +914,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C8" t="n">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70024059</t>
+          <t>70006417</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -929,11 +929,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>17.334</v>
+        <v>600</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,14 +964,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70006491</t>
+          <t>70002173</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -979,11 +979,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1014,14 +1014,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C10" t="n">
-        <v>130</v>
+        <v>490</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70014632</t>
+          <t>70007003</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1029,11 +1029,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1064,14 +1064,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>490</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70007004</t>
+          <t>70002172</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1079,11 +1079,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1520</v>
+        <v>6</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20220204</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1114,14 +1114,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>430</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70002993</t>
+          <t>70007003</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20220204</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1164,24 +1164,26 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70006302</t>
+          <t>70006920</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>3801</v>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ZRPL</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1191,7 +1193,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1212,14 +1214,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70007445</t>
+          <t>70006581</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1231,7 +1233,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>780</v>
+        <v>300</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1241,7 +1243,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1262,14 +1264,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70006426</t>
+          <t>70006402</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1277,11 +1279,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>687</v>
+        <v>750</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1291,7 +1293,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20220211</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1312,14 +1314,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3823001123</v>
+        <v>3820017687</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70001072</t>
+          <t>70006401</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1327,11 +1329,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>930</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1341,7 +1343,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20220211</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1362,22 +1364,26 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3820016489</v>
+        <v>3820017687</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70025280</t>
+          <t>70006244</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>3801</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ZRPL</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>9.334</v>
+        <v>200</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1387,7 +1393,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1408,22 +1414,26 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3820016489</v>
+        <v>3820017687</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70025238</t>
+          <t>70007901</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>3801</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ZRRL</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1433,7 +1443,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1454,22 +1464,26 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3820016489</v>
+        <v>3820017687</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70025237</t>
+          <t>70001855</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>3801</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ZRER</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1479,7 +1493,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1500,14 +1514,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3820016489</v>
+        <v>3820017687</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70024059</t>
+          <t>70006593</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1515,11 +1529,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.667</v>
+        <v>78</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1529,7 +1543,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1550,14 +1564,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3820016489</v>
+        <v>3820017687</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70006491</t>
+          <t>70002433</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1565,11 +1579,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZRSE</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1579,7 +1593,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1600,14 +1614,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3820016489</v>
+        <v>3820017687</v>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70014632</t>
+          <t>70007904</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1615,11 +1629,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1629,7 +1643,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20220408</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1650,14 +1664,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3820016383</v>
+        <v>3820017687</v>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>70007933</t>
+          <t>70003199</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1665,11 +1679,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZRRL</t>
+          <t>ZRER</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1679,7 +1693,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20220211</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1700,14 +1714,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3820016383</v>
+        <v>3820017809</v>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>70003233</t>
+          <t>70008430</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1715,11 +1729,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ZRER</t>
+          <t>ZRRL</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1729,7 +1743,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20220211</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1750,22 +1764,26 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3820016511</v>
+        <v>3820017809</v>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>70026621</t>
+          <t>70004965</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>3801</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ZRER</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>474.45</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1775,7 +1793,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20220218</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1796,22 +1814,26 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3820016511</v>
+        <v>3820017684</v>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70026622</t>
+          <t>70006402</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>3801</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ZRPL</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>150</v>
+        <v>525</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1821,7 +1843,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20220218</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1842,14 +1864,14 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3820016242</v>
+        <v>3820017729</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>70009638</t>
+          <t>70005393</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1857,11 +1879,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRFC</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3261</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1871,7 +1893,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1892,14 +1914,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3820016242</v>
+        <v>3820017729</v>
       </c>
       <c r="C28" t="n">
         <v>10</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>70004211</t>
+          <t>70004548</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1907,11 +1929,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZRFC</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>3261</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1921,7 +1943,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20220107</t>
+          <t>20220205</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1942,14 +1964,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3820016426</v>
+        <v>3820017729</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70006538</t>
+          <t>70004550</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1957,11 +1979,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZREA</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>50</v>
+        <v>3261</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1971,7 +1993,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20220128</t>
+          <t>20220326</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1988,54 +2010,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3820016426</v>
-      </c>
-      <c r="C30" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>70007015</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>100</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>20220128</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N30" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="n"/>
+      <c r="M30" s="4" t="n"/>
+      <c r="N30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
